--- a/요구사항 분석서.xlsx
+++ b/요구사항 분석서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanino\Desktop\문서\직업훈련\팀프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmg65\github\Meeting_Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBCCCE98-C233-43FE-A915-C0D5E3402196}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A1C2B2-A858-40E1-AEB2-AAF2587CE6A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{75874DD5-9C79-4FFA-A134-FDEB5CD24794}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{75874DD5-9C79-4FFA-A134-FDEB5CD24794}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>인터페이스 요구 사항 검토서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,13 +324,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다음에 여기부터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">      - 업체 자체적인 스케줄을 관리하는 기능 : 당사 사이트의 예약 이외에 오프라인예약
         이나 개인적인 스케줄 관리 시스템 구현
  - 업체별 이벤트 설정??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/18 추가 회의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/17 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,30 +483,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -514,22 +515,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -861,559 +865,590 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="2" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
@@ -1427,37 +1462,6 @@
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1469,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAB9DB2-3407-47D2-A6AC-63EF3EBC3D88}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1482,438 +1486,440 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="132" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="6">
-        <v>19</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="3">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
+        <v>23</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3">
         <v>25</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6">
-        <v>11</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3">
         <v>26</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6">
-        <v>13</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3">
         <v>28</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6">
-        <v>17</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6">
-        <v>20</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6">
-        <v>21</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6">
-        <v>23</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6">
-        <v>24</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6">
-        <v>25</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6">
-        <v>26</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6">
-        <v>27</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6">
-        <v>28</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H24">
@@ -1924,5 +1930,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>